--- a/fp/FpAgent/srv/import/Example_import_POD.xlsx
+++ b/fp/FpAgent/srv/import/Example_import_POD.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="22980" windowHeight="9465"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,17 @@
     <t>Получатель</t>
   </si>
   <si>
-    <t>19.08.15 01:01:01</t>
+    <t>Иванов Иван Иванович</t>
   </si>
   <si>
-    <t>Иванов Иван Иванович</t>
+    <t>19.08.15 01:01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +179,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,6 +214,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -388,21 +390,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,15 +415,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>63105131</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
